--- a/medicine/Pharmacie/Aiguille_hypodermique/Aiguille_hypodermique.xlsx
+++ b/medicine/Pharmacie/Aiguille_hypodermique/Aiguille_hypodermique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une aiguille hypodermique est une aiguille creuse, utilisée généralement avec une seringue, qui peut traverser la peau pour injecter des substances dans le corps. Elles peuvent également être utilisées pour prélever des échantillons liquides du corps, par exemple dans le cadre d'un prélèvement sanguin. L'Espagnol Manuel Jalón Corominas est l’inventeur de l'aiguille hypodermique jetable.
 Une aiguille hypodermique est utilisée quand la substance n'est pas correctement absorbée par le système digestif, comme l'insuline, ou si la substance doit être instantanément absorbée par le corps. La substance peut être injectée juste sous la peau (injection sous-cutanée), dans un muscle (injection intra-musculaire), ou dans la circulation sanguine (injection intraveineuse). Plus rarement, les aiguilles hypodermiques sont utilisées pour réaliser des injections dans les articulations (injection intra-articulaire), le liquide céphalorachidien (injection intrathécale), ou directement dans la peau (injection intra-dermique).
